--- a/inferences/jesuita-entrada-maybe-Coimbra.xlsx
+++ b/inferences/jesuita-entrada-maybe-Coimbra.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="jesuita_entrada_maybe_Coimbra" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="jesuita_entrada_maybe_Coimbra" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1000,11 +1000,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1070,11 +1066,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "a 15, 23 ou 25"}}</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1239,11 +1231,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "estava j\u00e1 no noviciado"}}</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1278,7 +1266,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>talvez tenha saído durante o noviciado extra_info: {"value": {"comment": "para a China"}}</t>
+          <t>talvez tenha saído durante o noviciado</t>
         </is>
       </c>
     </row>
@@ -1313,11 +1301,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "para a China"}}</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1416,11 +1400,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17480000"}}</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1453,11 +1433,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17361104"}}</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inferences/jesuita-entrada-maybe-Coimbra.xlsx
+++ b/inferences/jesuita-entrada-maybe-Coimbra.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="jesuita_entrada_maybe_Coimbra" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="jesuita_entrada_maybe_Coimbra" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,16 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>jesuita-entrada.original</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>jesuita-entrada.original.comment</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>jesuita-entrada.obs</t>
         </is>
       </c>
@@ -473,12 +483,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-lopes-senior</t>
+          <t>deh-belchior-miguel-carneiro-leitao</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>António Lopes, sénior</t>
+          <t>Belchior Miguel Carneiro Leitão</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,30 +498,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Taveiro, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>16310000</t>
+          <t>15430425</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-simoes-i</t>
+          <t>deh-fernao-mendes-pinto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>António Simões</t>
+          <t>Fernão Mendes Pinto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,30 +533,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rio de Galinhas, diocese de Coimbra</t>
+          <t>Montemor-o-Velho, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16780000</t>
+          <t>15540000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-simoes-iii</t>
+          <t>deh-pedro-martins</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>António Simões</t>
+          <t>Pedro Martins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,30 +568,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Penela, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17460615</t>
+          <t>15560525</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>deh-bento-monteiro</t>
+          <t>deh-joao-soeiro</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bento Monteiro</t>
+          <t>João Soeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,30 +603,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Montemor-o-Velho, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17320627</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-da-silva-iii</t>
+          <t>deh-simao-da-cunha</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Francisco da Silva</t>
+          <t>Simão da Cunha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +638,40 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vinha da Rainha, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17451103</t>
+          <t>16060113</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>@wikidata:Q45412 Dehergne não especifica local, Brockey estudos Filosofia e Teologia em Coimbra</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-moreira</t>
+          <t>deh-inacio-lobo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Francisco Moreira</t>
+          <t>Inácio Lobo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -658,7 +686,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17040101</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -667,16 +695,18 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>deh-gregorio-seco</t>
+          <t>deh-inacio-lobo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gregório Seco</t>
+          <t>Inácio Lobo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -686,12 +716,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Miranda do Corvo, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17400000</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -700,16 +730,18 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-francisco</t>
+          <t>deh-gabriel-de-magalhaes</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Inácio Francisco</t>
+          <t>Gabriel de Magalhães</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -719,30 +751,40 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Conraria, diocese de Coimbra</t>
+          <t>Pedrógão Grande, perto de Coimbra</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17240824</t>
+          <t>16250000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>@wikidata:Q45412 Segundo Louis Buglio 1688</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-lobo</t>
+          <t>deh-jose-estevao-de-almeida</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Inácio Lobo</t>
+          <t>José Estêvão de Almeida</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -752,12 +794,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Esgueira, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16240000</t>
+          <t>16280000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -766,16 +808,18 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-lobo</t>
+          <t>deh-antonio-lopes-senior</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Inácio Lobo</t>
+          <t>António Lopes, sénior</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -785,12 +829,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Taveiro, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>16350000</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -799,16 +843,18 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-couceiro</t>
+          <t>deh-luis-pinheiro</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>João Couceiro</t>
+          <t>Luís Pinheiro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -818,12 +864,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tentúgal, diocese de Coimbra</t>
+          <t>Esgueira, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16490000</t>
+          <t>16370000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -832,16 +878,18 @@
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-fonseca-ii</t>
+          <t>deh-luis-pinheiro</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>João da Fonseca</t>
+          <t>Luís Pinheiro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -851,12 +899,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Villacova de Suevo, diocese de Coimbra</t>
+          <t>Esgueira, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17480518</t>
+          <t>16450000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -865,16 +913,18 @@
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-simoes</t>
+          <t>deh-manuel-jorge</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>João Simões</t>
+          <t>Manuel Jorge</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -884,30 +934,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Penela, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17340517</t>
+          <t>16380000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>deh-joaquim-de-azevedo</t>
+          <t>deh-andre-ferrao</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Joaquim de Azevedo</t>
+          <t>André Ferrão</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -917,30 +969,44 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Ceia, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17460615</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>@wikidata:Q45412 Brockey, cap.6 n.95</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[Brockey diz "educated at the College of Coimbra" cap.6 nota 95, citando a carta ânua de 1656, Ajuda, 49-V.14:62v]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-da-silva</t>
+          <t>deh-simao-martins</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>José da Silva</t>
+          <t>Simão Martins</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -950,34 +1016,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Soure, diocese de Coimbra</t>
+          <t>Vila Pouca do Campo, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1740225</t>
+          <t>16410000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>MMHM:p.375</t>
-        </is>
-      </c>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-almeida-iii</t>
+          <t>deh-francisco-pimentel</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>José de Almeida</t>
+          <t>Francisco Pimentel</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -987,30 +1051,40 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Arcos, diocese de Coimbra</t>
+          <t>Arganil, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1750000</t>
+          <t>16480201</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Franco, Imagem...Lisboa, 1717, p.577</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-estevao-de-almeida</t>
+          <t>deh-joao-couceiro</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>José Estêvão de Almeida</t>
+          <t>João Couceiro</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1020,12 +1094,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Esgueira, diocese de Coimbra</t>
+          <t>Tentúgal, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>16280000</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1034,6 +1108,8 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1067,16 +1143,18 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-carvalho-ii</t>
+          <t>deh-manuel-mendes</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Luís de Carvalho</t>
+          <t>Manuel Mendes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1086,30 +1164,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Miranda do Corvo, diocese de Coimbra</t>
+          <t>Soure, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17490327</t>
+          <t>16730315</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-duarte</t>
+          <t>deh-manuel-mendes</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Luís Duarte</t>
+          <t>Manuel Mendes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1119,30 +1199,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rio de Vide, diocese de Coimbra</t>
+          <t>Soure, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17460519</t>
+          <t>16730315</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-pinheiro</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Luís Pinheiro</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1152,30 +1234,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Esgueira, diocese de Coimbra</t>
+          <t>Lousã, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>16370000</t>
+          <t>16770527</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-pinheiro</t>
+          <t>deh-antonio-simoes-i</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Luís Pinheiro</t>
+          <t>António Simões</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1185,12 +1269,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Esgueira, diocese de Coimbra</t>
+          <t>Rio de Galinhas, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>16450000</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1199,16 +1283,18 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-da-costa</t>
+          <t>deh-estanislau-machado</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Manuel da Costa</t>
+          <t>Estanislau Machado</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1218,30 +1304,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Figueiró, diocese de Coimbra</t>
+          <t>Anobra, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17481209</t>
+          <t>16810515</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-carvalho-ii</t>
+          <t>deh-antonio-lopes-junior</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Manuel de Carvalho</t>
+          <t>António Lopes, júnior</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1251,34 +1339,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Águeda, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>17470102</t>
+          <t>16841225</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>talvez tenha saído durante o noviciado</t>
-        </is>
-      </c>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-de-figueiredo</t>
+          <t>deh-estevao-collasco</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mateus de Figueiredo</t>
+          <t>Estêvão Collasco</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1288,30 +1374,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>S. Joaninho, diocese de Coimbra</t>
+          <t>Semide, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>17440404</t>
+          <t>16920127</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>deh-paulo-de-campos</t>
+          <t>deh-matias-rodrigues</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Paulo de Campos</t>
+          <t>Matias Rodrigues</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1321,30 +1409,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bobadela, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>17370502</t>
+          <t>16940130</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>deh-policarpo-de-sousa</t>
+          <t>deh-antonio-de-melo</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Policarpo de Sousa</t>
+          <t>António de Melo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1354,30 +1444,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Montemor-o-Velho, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>17121031</t>
+          <t>16990424</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>deh-tome-da-silva</t>
+          <t>deh-francisco-moreira</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tomé da Silva</t>
+          <t>Francisco Moreira</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1387,12 +1479,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sousa, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17460719</t>
+          <t>17040101</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1401,39 +1493,1125 @@
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
+          <t>deh-antonio-taborda</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>António Taborda</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Arzila, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>17070917</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Évora</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>deh-policarpo-de-sousa</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Policarpo de Sousa</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>17121031</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>deh-jose-montanha-ii</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>José Montanha</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>17211031</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>deh-inacio-francisco</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Inácio Francisco</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Conraria, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>17240824</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>deh-bento-monteiro</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bento Monteiro</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>17320627</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>deh-joao-simoes</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>João Simões</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Penela, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>17340517</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>deh-bento-ferreira</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Bento Ferreira</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>17360120</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
           <t>deh-xavier-duarte</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Xavier Duarte</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>17361103</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>deh-paulo-de-campos</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Paulo de Campos</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Bobadela, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>17370502</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>deh-gregorio-seco</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Gregório Seco</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Miranda do Corvo, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1740</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>deh-jose-da-silva</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>José da Silva</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Soure, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>17400225</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>MMHM:p.375</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>deh-inacio-pires</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Inácio Pires</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Meãs do Campo, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>17420427</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>deh-mateus-de-figueiredo</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mateus de Figueiredo</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>S. Joaninho, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>17440404</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>deh-andre-rodrigues</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>André Rodrigues</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mortágua, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>17450423</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Lisboa, Arroios</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>@wikidata:Q597</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>deh-francisco-da-silva-iii</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Francisco da Silva</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Vinha da Rainha, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>17451103</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>deh-jose-bernardo-de-almeida</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>José Bernardo de Almeida</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Penela, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>17460223</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Lisboa, Arroios</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>@wikidata:Q15041623</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>deh-luis-duarte</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Luís Duarte</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Rio de Vide, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>17460519</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>deh-antonio-simoes-iii</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>António Simões</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Penela, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>17460615</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>deh-joaquim-de-azevedo</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Joaquim de Azevedo</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>17460615</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>deh-tome-da-silva</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Tomé da Silva</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sousa, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>17460719</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>deh-manuel-jose-de-carvalho</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Manuel José de Carvalho</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Moreta, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>17460719</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>deh-manuel-de-carvalho-ii</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Manuel de Carvalho</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Águeda, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>17470102</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>talvez tenha saído durante o noviciado</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>deh-joao-da-cunha</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>João da Cunha</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>17471123</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>deh-joao-da-fonseca-ii</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>João da Fonseca</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Villacova de Suevo, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>17480518</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>deh-manuel-da-fonseca</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Manuel da Fonseca</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Figueiró-do-Campo, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>17481206</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>deh-manuel-da-costa</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Manuel da Costa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Figueiró, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>17481209</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>deh-sebastiao-correa</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Sebastião Correa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Semide, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>17490309</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Lisboa, Arroios</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>@wikidata:Q597</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>deh-joao-mendes</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>João Mendes</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>17490309</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>deh-luis-de-carvalho-ii</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Luís de Carvalho</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Miranda do Corvo, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>17490327</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>deh-jose-de-almeida-iii</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>José de Almeida</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Arcos, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1750000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>deh-joaquim-lobo</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Joaquim Lobo</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Cadaval, diocese de Coimbra</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>17510401</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inferences/jesuita-entrada-maybe-Coimbra.xlsx
+++ b/inferences/jesuita-entrada-maybe-Coimbra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>deh-belchior-miguel-carneiro-leitao</t>
+          <t>deh-antonio-lopes-senior</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Belchior Miguel Carneiro Leitão</t>
+          <t>António Lopes, sénior</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,17 +498,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Taveiro, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>15430425</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -518,12 +518,12 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>deh-fernao-mendes-pinto</t>
+          <t>deh-antonio-simoes-i</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fernão Mendes Pinto</t>
+          <t>António Simões</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,17 +533,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Montemor-o-Velho, diocese de Coimbra</t>
+          <t>Rio de Galinhas, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15540000</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Goa</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -553,12 +553,12 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-martins</t>
+          <t>deh-antonio-simoes-iii</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pedro Martins</t>
+          <t>António Simões</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -568,17 +568,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Penela, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15560525</t>
+          <t>17460615</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -588,12 +588,12 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-soeiro</t>
+          <t>deh-antonio-simoes-iii</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Soeiro</t>
+          <t>António Simões</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,17 +603,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Montemor-o-Velho, diocese de Coimbra</t>
+          <t>Penela, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>17460615</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -623,12 +623,12 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-da-cunha</t>
+          <t>deh-bento-monteiro</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Simão da Cunha</t>
+          <t>Bento Monteiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -643,35 +643,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>16060113</t>
+          <t>17320627</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>@wikidata:Q45412 Dehergne não especifica local, Brockey estudos Filosofia e Teologia em Coimbra</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-lobo</t>
+          <t>deh-francisco-da-silva-iii</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Inácio Lobo</t>
+          <t>Francisco da Silva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -681,12 +673,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Vinha da Rainha, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>17451103</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -701,12 +693,12 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-lobo</t>
+          <t>deh-francisco-moreira</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Inácio Lobo</t>
+          <t>Francisco Moreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -721,7 +713,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>17040101</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -736,12 +728,12 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>deh-gabriel-de-magalhaes</t>
+          <t>deh-gregorio-seco</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gabriel de Magalhães</t>
+          <t>Gregório Seco</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -751,40 +743,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pedrógão Grande, perto de Coimbra</t>
+          <t>Miranda do Corvo, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>16250000</t>
+          <t>1740</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>@wikidata:Q45412 Segundo Louis Buglio 1688</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-estevao-de-almeida</t>
+          <t>deh-inacio-francisco</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>José Estêvão de Almeida</t>
+          <t>Inácio Francisco</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -794,12 +778,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Esgueira, diocese de Coimbra</t>
+          <t>Conraria, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16280000</t>
+          <t>17240824</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -814,12 +798,12 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-lopes-senior</t>
+          <t>deh-inacio-lobo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>António Lopes, sénior</t>
+          <t>Inácio Lobo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -829,12 +813,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Taveiro, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -849,12 +833,12 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-pinheiro</t>
+          <t>deh-inacio-lobo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Luís Pinheiro</t>
+          <t>Inácio Lobo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -864,12 +848,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Esgueira, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16370000</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -884,12 +868,12 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-pinheiro</t>
+          <t>deh-joao-couceiro</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Luís Pinheiro</t>
+          <t>João Couceiro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -899,12 +883,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Esgueira, diocese de Coimbra</t>
+          <t>Tentúgal, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16450000</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -919,12 +903,12 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-jorge</t>
+          <t>deh-joao-da-fonseca-ii</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Manuel Jorge</t>
+          <t>João da Fonseca</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -934,17 +918,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Villacova de Suevo, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>16380000</t>
+          <t>17480518</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -954,12 +938,12 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-ferrao</t>
+          <t>deh-joao-simoes</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>André Ferrão</t>
+          <t>João Simões</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -969,44 +953,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ceia, diocese de Coimbra</t>
+          <t>Penela, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>17340517</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>@wikidata:Q45412 Brockey, cap.6 n.95</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[Brockey diz "educated at the College of Coimbra" cap.6 nota 95, citando a carta ânua de 1656, Ajuda, 49-V.14:62v]</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-martins</t>
+          <t>deh-joaquim-de-azevedo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Simão Martins</t>
+          <t>Joaquim de Azevedo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1016,17 +988,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Vila Pouca do Campo, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>17460615</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Goa</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1036,12 +1008,12 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pimentel</t>
+          <t>deh-jose-da-silva</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Francisco Pimentel</t>
+          <t>José da Silva</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1051,40 +1023,36 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Arganil, diocese de Coimbra</t>
+          <t>Soure, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16480201</t>
+          <t>17400225</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lisboa</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Franco, Imagem...Lisboa, 1717, p.577</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>MMHM:p.375</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-couceiro</t>
+          <t>deh-jose-de-almeida-iii</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>João Couceiro</t>
+          <t>José de Almeida</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1094,12 +1062,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tentúgal, diocese de Coimbra</t>
+          <t>Arcos, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>1750000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1114,12 +1082,12 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-soares</t>
+          <t>deh-jose-estevao-de-almeida</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>José Soares</t>
+          <t>José Estêvão de Almeida</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1129,12 +1097,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Santa Comba Dão, diocese de Coimbra</t>
+          <t>Esgueira, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>16730300</t>
+          <t>16280000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1149,12 +1117,12 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-mendes</t>
+          <t>deh-jose-soares</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Manuel Mendes</t>
+          <t>José Soares</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1164,17 +1132,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Soure, diocese de Coimbra</t>
+          <t>Santa Comba Dão, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>16730315</t>
+          <t>16730300</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1184,12 +1152,12 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-mendes</t>
+          <t>deh-luis-de-carvalho-ii</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Manuel Mendes</t>
+          <t>Luís de Carvalho</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1199,17 +1167,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Soure, diocese de Coimbra</t>
+          <t>Miranda do Corvo, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>16730315</t>
+          <t>17490327</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1219,12 +1187,12 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-luis-duarte</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>Luís Duarte</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1234,17 +1202,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lousã, diocese de Coimbra</t>
+          <t>Rio de Vide, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>16770527</t>
+          <t>17460519</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1254,12 +1222,12 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-simoes-i</t>
+          <t>deh-luis-pinheiro</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>António Simões</t>
+          <t>Luís Pinheiro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1269,12 +1237,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rio de Galinhas, diocese de Coimbra</t>
+          <t>Esgueira, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>16370000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1289,12 +1257,12 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>deh-estanislau-machado</t>
+          <t>deh-luis-pinheiro</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Estanislau Machado</t>
+          <t>Luís Pinheiro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1304,17 +1272,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Anobra, diocese de Coimbra</t>
+          <t>Esgueira, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>16810515</t>
+          <t>16450000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1324,12 +1292,12 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-lopes-junior</t>
+          <t>deh-manuel-da-costa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>António Lopes, júnior</t>
+          <t>Manuel da Costa</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1339,17 +1307,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Figueiró, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16841225</t>
+          <t>17481209</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1359,12 +1327,12 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>deh-estevao-collasco</t>
+          <t>deh-manuel-de-carvalho-ii</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Estêvão Collasco</t>
+          <t>Manuel de Carvalho</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1374,32 +1342,36 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Semide, diocese de Coimbra</t>
+          <t>Águeda, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>16920127</t>
+          <t>17470102</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>talvez tenha saído durante o noviciado</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-rodrigues</t>
+          <t>deh-mateus-de-figueiredo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Matias Rodrigues</t>
+          <t>Mateus de Figueiredo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1409,17 +1381,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>S. Joaninho, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>16940130</t>
+          <t>17440404</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1429,12 +1401,12 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-melo</t>
+          <t>deh-paulo-de-campos</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>António de Melo</t>
+          <t>Paulo de Campos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1444,17 +1416,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Montemor-o-Velho, diocese de Coimbra</t>
+          <t>Bobadela, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16990424</t>
+          <t>17370502</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1464,12 +1436,12 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-moreira</t>
+          <t>deh-policarpo-de-sousa</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Francisco Moreira</t>
+          <t>Policarpo de Sousa</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1484,7 +1456,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17040101</t>
+          <t>17121031</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1499,12 +1471,12 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-taborda</t>
+          <t>deh-tome-da-silva</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>António Taborda</t>
+          <t>Tomé da Silva</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1514,17 +1486,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Arzila, diocese de Coimbra</t>
+          <t>Sousa, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17070917</t>
+          <t>17460719</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Évora</t>
+          <t>?</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1534,12 +1506,12 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>deh-policarpo-de-sousa</t>
+          <t>deh-xavier-duarte</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Policarpo de Sousa</t>
+          <t>Xavier Duarte</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1554,7 +1526,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>17121031</t>
+          <t>17361103</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1565,1053 +1537,6 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>deh-jose-montanha-ii</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>José Montanha</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>17211031</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>deh-inacio-francisco</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Inácio Francisco</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Conraria, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>17240824</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>deh-bento-monteiro</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Bento Monteiro</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>17320627</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>deh-joao-simoes</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>João Simões</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Penela, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>17340517</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>deh-bento-ferreira</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Bento Ferreira</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>17360120</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Lisboa</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>deh-xavier-duarte</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Xavier Duarte</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>17361103</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>deh-paulo-de-campos</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Paulo de Campos</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Bobadela, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>17370502</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>deh-gregorio-seco</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Gregório Seco</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Miranda do Corvo, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1740</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>deh-jose-da-silva</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>José da Silva</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Soure, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>17400225</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>MMHM:p.375</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>deh-inacio-pires</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Inácio Pires</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Meãs do Campo, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>17420427</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>deh-mateus-de-figueiredo</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Mateus de Figueiredo</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>S. Joaninho, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>17440404</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>deh-andre-rodrigues</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>André Rodrigues</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Mortágua, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>17450423</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Lisboa</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Lisboa, Arroios</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>@wikidata:Q597</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>deh-francisco-da-silva-iii</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Francisco da Silva</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Vinha da Rainha, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>17451103</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>deh-jose-bernardo-de-almeida</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>José Bernardo de Almeida</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Penela, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>17460223</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Lisboa</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Lisboa, Arroios</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>@wikidata:Q15041623</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>deh-luis-duarte</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Luís Duarte</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Rio de Vide, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>17460519</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>deh-antonio-simoes-iii</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>António Simões</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Penela, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>17460615</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>deh-joaquim-de-azevedo</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Joaquim de Azevedo</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>17460615</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>deh-tome-da-silva</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Tomé da Silva</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Sousa, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>17460719</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>deh-manuel-jose-de-carvalho</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Manuel José de Carvalho</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Moreta, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>17460719</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Lisboa</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>deh-manuel-de-carvalho-ii</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Manuel de Carvalho</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Águeda, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>17470102</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>talvez tenha saído durante o noviciado</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>deh-joao-da-cunha</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>João da Cunha</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>17471123</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Lisboa</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>deh-joao-da-fonseca-ii</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>João da Fonseca</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Villacova de Suevo, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>17480518</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>deh-manuel-da-fonseca</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Manuel da Fonseca</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Figueiró-do-Campo, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>17481206</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Lisboa</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>deh-manuel-da-costa</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Manuel da Costa</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Figueiró, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>17481209</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>deh-sebastiao-correa</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Sebastião Correa</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Semide, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>17490309</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Lisboa</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Lisboa, Arroios</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>@wikidata:Q597</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>deh-joao-mendes</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>João Mendes</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>17490309</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Lisboa</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>deh-luis-de-carvalho-ii</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Luís de Carvalho</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Miranda do Corvo, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>17490327</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>deh-jose-de-almeida-iii</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>José de Almeida</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Arcos, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>1750000</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>deh-joaquim-lobo</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Joaquim Lobo</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Cadaval, diocese de Coimbra</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>17510401</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Lisboa</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
